--- a/src/test/resources/MDL_diagnosis.xlsx
+++ b/src/test/resources/MDL_diagnosis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7446573-2406-4479-A58C-6D7762494B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB54B097-0272-4D43-A917-2A5B4A697F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="4200" windowWidth="21555" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -109,25 +109,16 @@
     <t>MDL Diagnosis- Anemia Panel</t>
   </si>
   <si>
-    <t>1FT5RD5GH91</t>
-  </si>
-  <si>
     <t>MDL diagnosis</t>
   </si>
   <si>
-    <t>CA-EL496AS5</t>
-  </si>
-  <si>
-    <t>CA-X39G8BBG</t>
-  </si>
-  <si>
-    <t>CA-WZ7I7QKS</t>
-  </si>
-  <si>
-    <t>CA-P4G5XN4C</t>
-  </si>
-  <si>
-    <t>CA-M1SBBSG4</t>
+    <t>CA-GBW4RD59</t>
+  </si>
+  <si>
+    <t>6FD5RD5GH91</t>
+  </si>
+  <si>
+    <t>CA-LQC12QAQ</t>
   </si>
 </sst>
 </file>
@@ -498,7 +489,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +543,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>23</v>
@@ -573,13 +564,13 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2">
         <v>10010</v>
